--- a/Project Documentation/Burn_Down_Sprint_4.xlsx
+++ b/Project Documentation/Burn_Down_Sprint_4.xlsx
@@ -1,29 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucy\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maddie\Desktop\this one is the one\ConquestionGameSimplified\Project Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -73,7 +69,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -107,12 +103,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Burn Down Chart - Sprint 1</a:t>
+              <a:t>Burn Down Chart - Sprint 4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="1"/>
       <c:spPr>
         <a:noFill/>
@@ -224,7 +219,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-38F0-47F4-9799-87EE33652B5A}"/>
             </c:ext>
@@ -306,7 +301,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8AD1-44B2-9957-BFF63680FE54}"/>
             </c:ext>
@@ -371,7 +366,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -493,7 +487,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1179,10 +1172,10 @@
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{18DD704D-FB05-4985-8CAD-1BE201132716}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18DD704D-FB05-4985-8CAD-1BE201132716}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" pred="{757AF1BC-137A-4C1F-B774-9D11F72898EC}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{757AF1BC-137A-4C1F-B774-9D11F72898EC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1489,19 +1482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -1512,72 +1505,72 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2">
-        <f>B1-30/6</f>
+        <f t="shared" ref="B2:B7" si="0">B1-30/6</f>
         <v>25</v>
       </c>
       <c r="C2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3">
-        <f>B2-30/6</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
       <c r="B4">
-        <f>B3-30/6</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
       <c r="B5">
-        <f>B4-30/6</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
       <c r="B6">
-        <f>B5-30/6</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
       <c r="B7">
-        <f>B6-30/6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C7">
